--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Product Type</t>
   </si>
   <si>
@@ -114,18 +111,20 @@
     <t>22, LimeSquare, City Road</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Suvam</t>
+  </si>
+  <si>
+    <t>25, LimeSquare, City Road</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,24 +516,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -551,39 +550,39 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -592,42 +591,39 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -636,56 +632,96 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
+      <c r="M4" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId22"/>
-    <hyperlink ref="M2" r:id="rId23"/>
-    <hyperlink ref="C3" r:id="rId24"/>
-    <hyperlink ref="M3" r:id="rId25"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="M4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Framework_003</t>
+  </si>
+  <si>
+    <t>Framework_004</t>
+  </si>
+  <si>
+    <t>Pratik</t>
+  </si>
+  <si>
+    <t>29, LimeSquare, City Road</t>
   </si>
 </sst>
 </file>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +676,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -700,15 +712,56 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -719,9 +772,11 @@
     <hyperlink ref="M3" r:id="rId4"/>
     <hyperlink ref="C4" r:id="rId5"/>
     <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Framework_003</t>
+  </si>
+  <si>
+    <t>29, LimeSquare, City Road</t>
+  </si>
+  <si>
+    <t>Pratik</t>
   </si>
 </sst>
 </file>
@@ -516,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +673,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -700,15 +709,56 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -719,9 +769,11 @@
     <hyperlink ref="M3" r:id="rId4"/>
     <hyperlink ref="C4" r:id="rId5"/>
     <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -126,7 +126,13 @@
     <t>29, LimeSquare, City Road</t>
   </si>
   <si>
-    <t>Pratik</t>
+    <t>Framework_005</t>
+  </si>
+  <si>
+    <t>Sourav</t>
+  </si>
+  <si>
+    <t>Shukla</t>
   </si>
 </sst>
 </file>
@@ -527,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +720,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -732,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>35</v>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -136,12 +136,16 @@
   </si>
   <si>
     <t>Sourav</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,16 +546,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,6 +641,9 @@
       </c>
       <c r="M2" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Register Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -24,129 +24,176 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Product Type</t>
-  </si>
-  <si>
-    <t>Product Number</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>Product 1</t>
+    <t>TC01_fnCheck_LandingPage_title</t>
+  </si>
+  <si>
+    <t>TC03_fnCheck_LandingPage_SystemMenu_Elements</t>
+  </si>
+  <si>
+    <t>TC04_fnCheck_LandingPage_ContactNo_menu</t>
+  </si>
+  <si>
+    <t>TC07_fnCheck_LandingPage_MyAccount_menu</t>
+  </si>
+  <si>
+    <t>TC09_fnCheck_LandingPage_MyAccount_Elements</t>
+  </si>
+  <si>
+    <t>TC10_fnCheck_LandingPage_WishList_menu</t>
+  </si>
+  <si>
+    <t>TC11_fnCheck_LandingPage_WishList_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC12_fnCheck_LandingPage_ShoppingCart_menu</t>
+  </si>
+  <si>
+    <t>TC13_fnCheck_LandingPage_ShoppingCart_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC14_fnCheck_LandingPage_Checkout_menu</t>
+  </si>
+  <si>
+    <t>TC15_fnCheck_LandingPage_Checkout_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC20_fnCheck_RegisterAccount_Page_title</t>
+  </si>
+  <si>
+    <t>TC21_fnCheck_RegisterAccount_Page_Home_menu</t>
+  </si>
+  <si>
+    <t>TC22_fnCheck_RegisterAccount_Page_Home_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC23_fnCheck_RegisterAccount_Page_Account_menu</t>
+  </si>
+  <si>
+    <t>TC24_fnCheck_RegisterAccount_Page_Account_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC25_fnCheck_RegisterAccount_Page_Register_menu</t>
+  </si>
+  <si>
+    <t>TC26_fnCheck_RegisterAccount_Page_Home_menu_functionality</t>
+  </si>
+  <si>
+    <t>Your Store</t>
+  </si>
+  <si>
+    <t>Test_Data</t>
+  </si>
+  <si>
+    <t>Desktops,Laptops &amp; Notebooks,Components,Tablets,Software,Phones &amp; PDAs,Cameras,MP3 Players,Promit</t>
+  </si>
+  <si>
+    <t>My Account</t>
+  </si>
+  <si>
+    <t>Register,Login</t>
+  </si>
+  <si>
+    <t>Wish List</t>
+  </si>
+  <si>
+    <t>Account Login</t>
+  </si>
+  <si>
+    <t>Shopping Cart</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Register Account</t>
+  </si>
+  <si>
+    <t>fa fa-home</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>TC28_fnCheck_RegisterAccount_Page_LoginPage_Link</t>
+  </si>
+  <si>
+    <t>TC29_fnCheck_RegisterAccount_Page_LoginPage_Link_functionality</t>
+  </si>
+  <si>
+    <t>TC31_fnCheck_RegisterAccount_Page_PersonalDetails_section_Header</t>
+  </si>
+  <si>
+    <t>Your Personal Details</t>
+  </si>
+  <si>
+    <t>TC32_fnCheck_RegisterAccount_Page_PersonalDetails_section_FirstName_label</t>
   </si>
   <si>
     <t>First Name</t>
   </si>
   <si>
+    <t>TC33_fnCheck_RegisterAccount_Page_PersonalDetails_section_FirstName_field</t>
+  </si>
+  <si>
+    <t>TC34_fnCheck_RegisterAccount_Page_PersonalDetails_section_LastName_label</t>
+  </si>
+  <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Lakshay</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>35, Marconi House, Walker Road</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>07777777777</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>tooolsqa@gmail.com</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Framework_001</t>
-  </si>
-  <si>
-    <t>Framework_002</t>
-  </si>
-  <si>
-    <t>iMacs</t>
-  </si>
-  <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>22, LimeSquare, City Road</t>
-  </si>
-  <si>
-    <t>Suvam</t>
-  </si>
-  <si>
-    <t>25, LimeSquare, City Road</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Framework_003</t>
-  </si>
-  <si>
-    <t>Framework_004</t>
-  </si>
-  <si>
-    <t>Pratik</t>
-  </si>
-  <si>
-    <t>29, LimeSquare, City Road</t>
-  </si>
-  <si>
-    <t>Framework_005</t>
-  </si>
-  <si>
-    <t>Sourav</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>TC35_fnCheck_RegisterAccount_Page_PersonalDetails_section_LastName_field</t>
+  </si>
+  <si>
+    <t>TC36_fnCheck_RegisterAccount_Page_PersonalDetails_section_Email_label</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>TC37_fnCheck_RegisterAccount_Page_PersonalDetails_section_Email_field</t>
+  </si>
+  <si>
+    <t>TC38_fnCheck_RegisterAccount_Page_PersonalDetails_section_Telephone_label</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>TC39_fnCheck_RegisterAccount_Page_PersonalDetails_section_Telephone_field</t>
+  </si>
+  <si>
+    <t>TC41_fnCheck_Login_Page_Home_menu</t>
+  </si>
+  <si>
+    <t>TC42_fnCheck_Login_Page_Home_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC43_fnCheck_Login_Page_Account_menu</t>
+  </si>
+  <si>
+    <t>TC44_fnCheck_Login_Page_Account_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC45_fnCheck_Login_Page_Login_menu</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>TC46_fnCheck_Login_Page_Home_menu_functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +205,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,30 +254,34 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,324 +581,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
-      <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
-      <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="M4" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="M6" r:id="rId10"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>TC46_fnCheck_Login_Page_Home_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC48_fnCheck_Login_Page_NewCustomer_section_header</t>
+  </si>
+  <si>
+    <t>New Customer</t>
+  </si>
+  <si>
+    <t>TC49_fnCheck_Login_Page_NewCustomer_section_RegisterAccount_label</t>
+  </si>
+  <si>
+    <t>TC51_fnCheck_Login_Page_NewCustomer_section_Continue_button</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>TC52_fnCheck_Login_Page_NewCustomer_section_Continue_button_functionality</t>
   </si>
 </sst>
 </file>
@@ -583,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -892,15 +910,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -961,16 +979,68 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
     <sheet name="Register Account" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -102,9 +102,6 @@
     <t>Shopping Cart</t>
   </si>
   <si>
-    <t>Checkout</t>
-  </si>
-  <si>
     <t>Register Account</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>TC52_fnCheck_Login_Page_NewCustomer_section_Continue_button_functionality</t>
+  </si>
+  <si>
+    <t>Checkout_icon</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,20 +800,20 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -821,74 +821,74 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -932,15 +932,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -948,15 +948,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -964,15 +964,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -980,34 +980,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -165,46 +165,88 @@
     <t>TC39_fnCheck_RegisterAccount_Page_PersonalDetails_section_Telephone_field</t>
   </si>
   <si>
-    <t>TC41_fnCheck_Login_Page_Home_menu</t>
-  </si>
-  <si>
-    <t>TC42_fnCheck_Login_Page_Home_menu_functionality</t>
-  </si>
-  <si>
-    <t>TC43_fnCheck_Login_Page_Account_menu</t>
-  </si>
-  <si>
-    <t>TC44_fnCheck_Login_Page_Account_menu_functionality</t>
-  </si>
-  <si>
-    <t>TC45_fnCheck_Login_Page_Login_menu</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>TC46_fnCheck_Login_Page_Home_menu_functionality</t>
-  </si>
-  <si>
-    <t>TC48_fnCheck_Login_Page_NewCustomer_section_header</t>
-  </si>
-  <si>
     <t>New Customer</t>
   </si>
   <si>
-    <t>TC49_fnCheck_Login_Page_NewCustomer_section_RegisterAccount_label</t>
-  </si>
-  <si>
-    <t>TC51_fnCheck_Login_Page_NewCustomer_section_Continue_button</t>
-  </si>
-  <si>
     <t>Continue</t>
   </si>
   <si>
-    <t>TC52_fnCheck_Login_Page_NewCustomer_section_Continue_button_functionality</t>
-  </si>
-  <si>
     <t>Checkout_icon</t>
+  </si>
+  <si>
+    <t>TC41_fnCheck_RegisterAccount_Page_YourPassword_section_Header</t>
+  </si>
+  <si>
+    <t>Your Password</t>
+  </si>
+  <si>
+    <t>TC42_fnCheck_RegisterAccount_Page_YourPassword_section_Password_label</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TC43_fnCheck_RegisterAccount_Page_YourPassword_section_Password_field</t>
+  </si>
+  <si>
+    <t>TC44_fnCheck_RegisterAccount_Page_YourPassword_section_ConfirmPassword_label</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>TC45_fnCheck_RegisterAccount_Page_YourPassword_section_ConfirmPassword_field</t>
+  </si>
+  <si>
+    <t>TC47_fnCheck_RegisterAccount_Page_Newsletter_section_Header</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>TC48_fnCheck_RegisterAccount_Page_Newsletter_section_Subscribe_label</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
+  </si>
+  <si>
+    <t>TC49_fnCheck_RegisterAccount_Subscribe_Radiobutton_options</t>
+  </si>
+  <si>
+    <t>Yes,No</t>
+  </si>
+  <si>
+    <t>TC55_fnCheck_Login_Page_Home_menu</t>
+  </si>
+  <si>
+    <t>TC56_fnCheck_Login_Page_Home_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC57_fnCheck_Login_Page_Account_menu</t>
+  </si>
+  <si>
+    <t>TC58_fnCheck_Login_Page_Account_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC59_fnCheck_Login_Page_Login_menu</t>
+  </si>
+  <si>
+    <t>TC60_fnCheck_Login_Page_Home_menu_functionality</t>
+  </si>
+  <si>
+    <t>TC62_fnCheck_Login_Page_NewCustomer_section_header</t>
+  </si>
+  <si>
+    <t>TC63_fnCheck_Login_Page_NewCustomer_section_RegisterAccount_label</t>
+  </si>
+  <si>
+    <t>TC65_fnCheck_Login_Page_NewCustomer_section_Continue_button</t>
+  </si>
+  <si>
+    <t>TC66_fnCheck_Login_Page_NewCustomer_section_Continue_button_functionality</t>
   </si>
 </sst>
 </file>
@@ -282,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -696,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,16 +937,84 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +1045,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
@@ -940,7 +1053,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -948,7 +1061,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -956,7 +1069,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -964,15 +1077,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -980,15 +1093,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -996,15 +1109,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -195,9 +195,6 @@
     <t>TC44_fnCheck_RegisterAccount_Page_YourPassword_section_ConfirmPassword_label</t>
   </si>
   <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
     <t>TC45_fnCheck_RegisterAccount_Page_YourPassword_section_ConfirmPassword_field</t>
   </si>
   <si>
@@ -247,6 +244,21 @@
   </si>
   <si>
     <t>TC66_fnCheck_Login_Page_NewCustomer_section_Continue_button_functionality</t>
+  </si>
+  <si>
+    <t>Password Confirm</t>
+  </si>
+  <si>
+    <t>TC51_fnCheck_RegisterAccount_Page_PrivacyPolicy_link</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>TC53_fnCheck_RegisterAccount_Page_PrivacyPolicy_Modal_header</t>
+  </si>
+  <si>
+    <t>TC54_fnCheck_RegisterAccount_Page_PrivacyPolicy_Modal_body_content</t>
   </si>
 </sst>
 </file>
@@ -774,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,52 +977,64 @@
         <v>58</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1025,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1069,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
@@ -1053,7 +1077,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -1061,7 +1085,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -1069,7 +1093,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1077,7 +1101,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
@@ -1085,7 +1109,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -1093,7 +1117,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -1101,7 +1125,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -1109,7 +1133,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -1117,7 +1141,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +681,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1049,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
     <sheet name="Register Account" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Registration" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -259,13 +260,43 @@
   </si>
   <si>
     <t>TC54_fnCheck_RegisterAccount_Page_PrivacyPolicy_Modal_body_content</t>
+  </si>
+  <si>
+    <t>Promit</t>
+  </si>
+  <si>
+    <t>Ghosh</t>
+  </si>
+  <si>
+    <t>pro@gmail.com</t>
+  </si>
+  <si>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>Prithu</t>
+  </si>
+  <si>
+    <t>P@gmail.com</t>
+  </si>
+  <si>
+    <t>Jan_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagnik </t>
+  </si>
+  <si>
+    <t>Sagnik@gmail.com</t>
+  </si>
+  <si>
+    <t>Feb_2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +308,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,10 +372,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,8 +396,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1093,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,4 +1225,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9830678213</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9190673425</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9051678932</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -262,24 +262,12 @@
     <t>TC54_fnCheck_RegisterAccount_Page_PrivacyPolicy_Modal_body_content</t>
   </si>
   <si>
-    <t>Promit</t>
-  </si>
-  <si>
     <t>Ghosh</t>
   </si>
   <si>
-    <t>pro@gmail.com</t>
-  </si>
-  <si>
-    <t>May_2021</t>
-  </si>
-  <si>
     <t>Prithu</t>
   </si>
   <si>
-    <t>P@gmail.com</t>
-  </si>
-  <si>
     <t>Jan_2021</t>
   </si>
   <si>
@@ -290,6 +278,12 @@
   </si>
   <si>
     <t>Feb_2021</t>
+  </si>
+  <si>
+    <t>Dey</t>
+  </si>
+  <si>
+    <t>Prithu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -376,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +391,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,71 +1265,50 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="10">
+        <v>9830647541</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="5">
-        <v>9830678213</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="10">
+        <v>9830688212</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="5">
-        <v>9190673425</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="5">
-        <v>9051678932</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -262,28 +262,28 @@
     <t>TC54_fnCheck_RegisterAccount_Page_PrivacyPolicy_Modal_body_content</t>
   </si>
   <si>
-    <t>Ghosh</t>
-  </si>
-  <si>
-    <t>Prithu</t>
-  </si>
-  <si>
     <t>Jan_2021</t>
   </si>
   <si>
     <t xml:space="preserve">Sagnik </t>
   </si>
   <si>
-    <t>Sagnik@gmail.com</t>
-  </si>
-  <si>
     <t>Feb_2021</t>
   </si>
   <si>
     <t>Dey</t>
   </si>
   <si>
-    <t>Prithu@gmail.com</t>
+    <t>Pritha</t>
+  </si>
+  <si>
+    <t>Pritha@gmail.com</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Sagnik.Sen@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1229,14 +1229,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -1265,42 +1265,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="10">
-        <v>9830647541</v>
+        <v>9830647674</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" s="10">
-        <v>9830688212</v>
+        <v>9830688298</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -284,6 +284,30 @@
   </si>
   <si>
     <t>Sagnik.Sen@gmail.com</t>
+  </si>
+  <si>
+    <t>TC16_fnCheck_LandingPage_Desktop_menu_functionality</t>
+  </si>
+  <si>
+    <t>PC (0),Mac (1),Show All Desktops</t>
+  </si>
+  <si>
+    <t>TC17_fnCheck_LandingPage_LaptopsNotebooks_menu_functionality</t>
+  </si>
+  <si>
+    <t>Macs (0),Windows (0),Show All Laptops &amp; Notebooks</t>
+  </si>
+  <si>
+    <t>TC18_fnCheck_LandingPage_Components_menu_functionality</t>
+  </si>
+  <si>
+    <t>Mice and Trackballs (0),Monitors (2),Printers (0),Scanners (0),Web Cameras (0),Show All Components</t>
+  </si>
+  <si>
+    <t>TC19_fnCheck_LandingPage_MP3Players_menu_functionality</t>
+  </si>
+  <si>
+    <t>test 11 (0),test 12 (0),test 20 (0),test 21 (0),test 15 (0),test 16 (0),test 17 (0),test 18 (0),test 19 (0),test 4 (0),test 5 (0),test 6 (0),test 7 (0),test 8 (0),test 9 (0),test 22 (0),test 23 (0),test 24 (0),Show All MP3 Players</t>
   </si>
 </sst>
 </file>
@@ -696,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,17 +828,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1228,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Landing Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Register Account" sheetId="2" r:id="rId2"/>
-    <sheet name="Login" sheetId="3" r:id="rId3"/>
-    <sheet name="Registration" sheetId="4" r:id="rId4"/>
+    <sheet name="Register Account" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" sheetId="3" r:id="rId2"/>
+    <sheet name="Registration" sheetId="4" r:id="rId3"/>
+    <sheet name="Landing Page" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -353,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -376,30 +376,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -720,165 +704,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -889,10 +717,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1065,42 +893,42 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1137,7 +965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1152,10 +980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1276,7 +1104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1296,22 +1124,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1322,10 +1150,10 @@
       <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>9830647674</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1342,10 +1170,10 @@
       <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>9830688298</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1363,4 +1191,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="1800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register Account" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -308,6 +308,39 @@
   </si>
   <si>
     <t>test 11 (0),test 12 (0),test 20 (0),test 21 (0),test 15 (0),test 16 (0),test 17 (0),test 18 (0),test 19 (0),test 4 (0),test 5 (0),test 6 (0),test 7 (0),test 8 (0),test 9 (0),test 22 (0),test 23 (0),test 24 (0),Show All MP3 Players</t>
+  </si>
+  <si>
+    <t>TC20_fnCheck_LandingPage_SystemMenu_Tablets_Submenu_functionality</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>TC21_fnCheck_LandingPage_SystemMenu_Software_Submenu_functionality</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>TC22_fnCheck_LandingPage_SystemMenu_PhonesandPDAs_Submenu_functionality</t>
+  </si>
+  <si>
+    <t>Phones &amp; PDAs</t>
+  </si>
+  <si>
+    <t>TC23_fnCheck_LandingPage_SystemMenu_Cameras_Submenu_functionality</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>TC56_fnCheck_RegisterAccount_Page_Right_MenuBar_Elements</t>
+  </si>
+  <si>
+    <t>Login,Register,Forgotten Password,My Account,Address Book,Wish List,Order History,Downloads,Recurring payments,Recurring payments,Returns,Transactions,Newsletter</t>
+  </si>
+  <si>
+    <t>TC68_fnCheck_Login_Page_Right_MenuBar_Elements</t>
   </si>
 </sst>
 </file>
@@ -706,14 +739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,9 +989,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    <row r="31" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,14 +1006,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,9 +1104,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1195,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1376,38 @@
         <v>96</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
